--- a/biology/Médecine/Région_de_bien-être_de_Vantaa_et_Kerava/Région_de_bien-être_de_Vantaa_et_Kerava.xlsx
+++ b/biology/Médecine/Région_de_bien-être_de_Vantaa_et_Kerava/Région_de_bien-être_de_Vantaa_et_Kerava.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_de_Vantaa_et_Kerava</t>
+          <t>Région_de_bien-être_de_Vantaa_et_Kerava</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La région de bien-être de Vantaa et Kerava (en finnois : Vantaan ja Keravan hyvinvointialue) est un organisme public indépendant des municipalités et de l'État chargé des services sociaux, de santé et de secours de Vantaa et Kerava[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région de bien-être de Vantaa et Kerava (en finnois : Vantaan ja Keravan hyvinvointialue) est un organisme public indépendant des municipalités et de l'État chargé des services sociaux, de santé et de secours de Vantaa et Kerava.
 C'est l'une des 23 régions de bien-être de Finlande.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_de_Vantaa_et_Kerava</t>
+          <t>Région_de_bien-être_de_Vantaa_et_Kerava</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Municipalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La région compte 2 villes[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région compte 2 villes.
  Kerava
  Vantaa
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_de_Vantaa_et_Kerava</t>
+          <t>Région_de_bien-être_de_Vantaa_et_Kerava</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +559,11 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La responsabilité légale de l'organisation des services sociaux et de santé et de secours passera des municipalités à la région de bien-être de Vantaa et Kerava à partir du 1er janvier 2023[5].
-Soins de santé
-Les 2 municipalités font partie du district hospitalier d'Helsinki et de l'Uusimaa. 
-La région est servie par le centre hospitalier universitaire d'Helsinki et l'hôpital de Peijas.
-Opérations de secours
-En termes d'opérations de secours d'urgence, les municipalités de la région de bien-être de Vantaa et Kerava dépendent du service de secours d'Uusimaa central.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La responsabilité légale de l'organisation des services sociaux et de santé et de secours passera des municipalités à la région de bien-être de Vantaa et Kerava à partir du 1er janvier 2023.
 </t>
         </is>
       </c>
@@ -563,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_de_Vantaa_et_Kerava</t>
+          <t>Région_de_bien-être_de_Vantaa_et_Kerava</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +589,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Soins de santé</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 2 municipalités font partie du district hospitalier d'Helsinki et de l'Uusimaa. 
+La région est servie par le centre hospitalier universitaire d'Helsinki et l'hôpital de Peijas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Région_de_bien-être_de_Vantaa_et_Kerava</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_de_bien-%C3%AAtre_de_Vantaa_et_Kerava</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Opérations de secours</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En termes d'opérations de secours d'urgence, les municipalités de la région de bien-être de Vantaa et Kerava dépendent du service de secours d'Uusimaa central.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Région_de_bien-être_de_Vantaa_et_Kerava</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_de_bien-%C3%AAtre_de_Vantaa_et_Kerava</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Politique et administration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les élections régionales finlandaises de 2022 ont eu lieu le 23 janvier 2022 afin de désigner pour la première fois les 69 conseillers régionaux élus pour 3 ans pour administrer la région de services du bien-être de Vantaa et Kerava.
 La répartition des voix et des sièges est la suivante :
